--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/10/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.580000000000001</v>
+        <v>7.966999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.124</v>
+        <v>-21.776</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.48</v>
+        <v>-21.53</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>5.397</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.522</v>
+        <v>5.179</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.84</v>
+        <v>-21.879</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.536</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.412</v>
+        <v>6.222</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.334</v>
+        <v>5.739999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.4</v>
+        <v>-21.032</v>
       </c>
       <c r="B37" t="n">
-        <v>8.109999999999999</v>
+        <v>7.816999999999998</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-22.184</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.642</v>
+        <v>5.912999999999999</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.42</v>
+        <v>-21.567</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.858</v>
+        <v>6.528</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.354</v>
+        <v>-20.93</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.986</v>
+        <v>-20.582</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.875999999999999</v>
+        <v>5.863000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.582000000000001</v>
+        <v>5.964</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>6.488</v>
+        <v>5.587</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,7 +1762,7 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>6.256</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>7.165999999999999</v>
+        <v>6.423</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.132</v>
+        <v>5.414999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.074</v>
+        <v>5.372</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
